--- a/data/Selenium Projekat.xlsx
+++ b/data/Selenium Projekat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bogdan\eclipse-workspace\SeleniumProjekat\Selenium-Projekat\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BE740F-AA3E-4B37-B7BA-74081D6FDF51}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9CB632-EC98-459E-AA52-EC33BA77228B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="11" xr2:uid="{99EB4EF1-293D-4724-ADEE-22196562C46E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{99EB4EF1-293D-4724-ADEE-22196562C46E}"/>
   </bookViews>
   <sheets>
     <sheet name="TestPlan" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="248">
   <si>
     <t>Testiranje:  http://automationpractice.com/index.php</t>
   </si>
@@ -307,9 +307,6 @@
     <t>verify that logout can successfully be executed using bottom sign out button.</t>
   </si>
   <si>
-    <t>verify that order history and details information can be opened.</t>
-  </si>
-  <si>
     <t>Test name: verify that order history and details information can be opened.</t>
   </si>
   <si>
@@ -649,9 +646,6 @@
     <t xml:space="preserve">pre-condition: Open http://automationpractice.com/index.php in the browser. </t>
   </si>
   <si>
-    <t>Nedovrseno</t>
-  </si>
-  <si>
     <t>Click on the "MY WISHLISTS" button.</t>
   </si>
   <si>
@@ -800,9 +794,6 @@
   </si>
   <si>
     <t>Your shopping cart is empty.</t>
-  </si>
-  <si>
-    <t>Proveri waiter!!!!</t>
   </si>
 </sst>
 </file>
@@ -1169,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BCE5D8-2FC5-4227-BD15-A458925905E1}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,12 +1173,12 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1287,106 +1278,92 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>243</v>
-      </c>
-      <c r="K34" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" t="s">
-        <v>85</v>
-      </c>
-      <c r="K37" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>72</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>65</v>
       </c>
       <c r="C47" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="C48" t="s">
         <v>193</v>
-      </c>
-      <c r="C48" t="s">
-        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -1419,7 +1396,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1489,7 +1466,7 @@
         <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1499,7 +1476,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1523,13 +1500,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1537,13 +1514,13 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O11">
         <v>2</v>
       </c>
       <c r="P11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1551,13 +1528,13 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O12">
         <v>3</v>
       </c>
       <c r="P12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1565,13 +1542,13 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O13">
         <v>4</v>
       </c>
       <c r="P13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1579,13 +1556,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O14">
         <v>5</v>
       </c>
       <c r="P14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1593,16 +1570,16 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O15">
         <v>6</v>
       </c>
       <c r="P15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -1615,7 +1592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5E6BEC-27A2-4108-8B1E-7AD7C40CFE18}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -1626,7 +1603,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1636,12 +1613,12 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1660,13 +1637,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1674,13 +1651,13 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O11">
         <v>2</v>
       </c>
       <c r="P11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1688,13 +1665,13 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O12">
         <v>3</v>
       </c>
       <c r="P12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1702,13 +1679,13 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O13">
         <v>4</v>
       </c>
       <c r="P13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1716,16 +1693,16 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
+        <v>245</v>
+      </c>
+      <c r="K14" t="s">
         <v>247</v>
-      </c>
-      <c r="K14" t="s">
-        <v>249</v>
       </c>
       <c r="O14">
         <v>5</v>
       </c>
       <c r="P14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -1745,10 +1722,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1758,7 +1735,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1782,13 +1759,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
         <v>87</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1796,21 +1773,21 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" t="s">
         <v>89</v>
       </c>
-      <c r="K11" t="s">
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11" t="s">
         <v>90</v>
-      </c>
-      <c r="O11">
-        <v>2</v>
-      </c>
-      <c r="P11" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1833,7 +1810,7 @@
         <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1843,7 +1820,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1867,13 +1844,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1881,13 +1858,13 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11" t="s">
         <v>106</v>
-      </c>
-      <c r="O11">
-        <v>2</v>
-      </c>
-      <c r="P11" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1895,16 +1872,16 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" t="s">
         <v>108</v>
-      </c>
-      <c r="K12" t="s">
-        <v>109</v>
       </c>
       <c r="O12">
         <v>3</v>
       </c>
       <c r="P12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1912,13 +1889,13 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O13">
         <v>4</v>
       </c>
       <c r="P13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1926,16 +1903,16 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O14">
         <v>5</v>
       </c>
       <c r="P14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1958,7 +1935,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1968,7 +1945,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1992,13 +1969,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
         <v>104</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -2006,13 +1983,13 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O11">
         <v>2</v>
       </c>
       <c r="P11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -2020,16 +1997,16 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s">
         <v>120</v>
-      </c>
-      <c r="K12" t="s">
-        <v>121</v>
       </c>
       <c r="O12">
         <v>3</v>
       </c>
       <c r="P12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -2037,16 +2014,16 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
         <v>123</v>
-      </c>
-      <c r="K13" t="s">
-        <v>124</v>
       </c>
       <c r="O13">
         <v>4</v>
       </c>
       <c r="P13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -2054,16 +2031,16 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" t="s">
         <v>126</v>
-      </c>
-      <c r="K14" t="s">
-        <v>127</v>
       </c>
       <c r="O14">
         <v>5</v>
       </c>
       <c r="P14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -2071,7 +2048,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K15" s="2">
         <v>30000</v>
@@ -2080,7 +2057,7 @@
         <v>6</v>
       </c>
       <c r="P15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -2088,16 +2065,16 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K16" t="s">
         <v>131</v>
-      </c>
-      <c r="K16" t="s">
-        <v>132</v>
       </c>
       <c r="O16">
         <v>7</v>
       </c>
       <c r="P16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -2105,16 +2082,16 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
+        <v>134</v>
+      </c>
+      <c r="K17" t="s">
         <v>135</v>
-      </c>
-      <c r="K17" t="s">
-        <v>136</v>
       </c>
       <c r="O17">
         <v>8</v>
       </c>
       <c r="P17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -2122,16 +2099,16 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O18">
         <v>9</v>
       </c>
       <c r="P18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2144,7 +2121,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:G8"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2154,7 +2131,7 @@
         <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2164,12 +2141,12 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -2179,7 +2156,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K10" t="s">
         <v>69</v>
@@ -2193,13 +2170,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O11">
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -2207,13 +2184,13 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
+        <v>145</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12" t="s">
         <v>146</v>
-      </c>
-      <c r="O12">
-        <v>2</v>
-      </c>
-      <c r="P12" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -2221,13 +2198,13 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O13">
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -2235,13 +2212,13 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O14">
         <v>4</v>
       </c>
       <c r="P14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2264,7 +2241,7 @@
         <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -2272,17 +2249,17 @@
         <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -2292,13 +2269,13 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S8" t="s">
         <v>70</v>
@@ -2309,13 +2286,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>151</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s">
         <v>152</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -2323,39 +2300,39 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H10" t="s">
+        <v>179</v>
+      </c>
+      <c r="M10" t="s">
         <v>180</v>
       </c>
-      <c r="M10" t="s">
-        <v>181</v>
-      </c>
       <c r="R10">
         <v>2</v>
       </c>
       <c r="S10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
+        <v>185</v>
+      </c>
+      <c r="I11" t="s">
         <v>186</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>187</v>
       </c>
-      <c r="J11" t="s">
-        <v>188</v>
-      </c>
       <c r="M11" t="s">
+        <v>185</v>
+      </c>
+      <c r="N11" t="s">
         <v>186</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>187</v>
-      </c>
-      <c r="O11" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -2363,7 +2340,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -2387,7 +2364,7 @@
         <v>3</v>
       </c>
       <c r="S12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -2395,19 +2372,19 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R13">
         <v>4</v>
       </c>
       <c r="S13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -2415,19 +2392,19 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R14">
         <v>5</v>
       </c>
       <c r="S14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2435,7 +2412,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -2447,7 +2424,7 @@
         <v>6</v>
       </c>
       <c r="S15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -2455,19 +2432,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R16">
         <v>7</v>
       </c>
       <c r="S16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2490,7 +2467,7 @@
         <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2500,7 +2477,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -2510,7 +2487,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -2529,13 +2506,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>151</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
         <v>152</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -2543,13 +2520,13 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
+        <v>167</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11" t="s">
         <v>168</v>
-      </c>
-      <c r="O11">
-        <v>2</v>
-      </c>
-      <c r="P11" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -2557,13 +2534,13 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O12">
         <v>3</v>
       </c>
       <c r="P12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -2571,7 +2548,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K13" t="s">
         <v>14</v>
@@ -2580,7 +2557,7 @@
         <v>4</v>
       </c>
       <c r="P13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -2588,16 +2565,16 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O14">
         <v>5</v>
       </c>
       <c r="P14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2620,7 +2597,7 @@
         <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2630,7 +2607,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -2643,7 +2620,7 @@
         <v>8</v>
       </c>
       <c r="K8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P8" t="s">
         <v>30</v>
@@ -2654,13 +2631,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -2668,16 +2645,16 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O10">
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -2685,16 +2662,16 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
+        <v>203</v>
+      </c>
+      <c r="K11" t="s">
         <v>205</v>
-      </c>
-      <c r="K11" t="s">
-        <v>207</v>
       </c>
       <c r="O11">
         <v>3</v>
       </c>
       <c r="P11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2727,7 +2704,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -2843,7 +2820,7 @@
         <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2853,7 +2830,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -2863,18 +2840,18 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -2882,13 +2859,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -2896,13 +2873,13 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O11">
         <v>2</v>
       </c>
       <c r="P11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -2910,13 +2887,13 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O12">
         <v>3</v>
       </c>
       <c r="P12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -2924,13 +2901,13 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O13">
         <v>4</v>
       </c>
       <c r="P13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -2938,13 +2915,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O14">
         <v>5</v>
       </c>
       <c r="P14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -2952,13 +2929,13 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O15">
         <v>6</v>
       </c>
       <c r="P15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -2966,7 +2943,7 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -2975,7 +2952,7 @@
         <v>7</v>
       </c>
       <c r="P16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2995,10 +2972,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -3008,7 +2985,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -3018,12 +2995,12 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K9" t="s">
         <v>69</v>
@@ -3037,13 +3014,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>225</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
         <v>227</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -3051,13 +3028,13 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
+        <v>226</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11" t="s">
         <v>228</v>
-      </c>
-      <c r="O11">
-        <v>2</v>
-      </c>
-      <c r="P11" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -3065,13 +3042,13 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O12">
         <v>3</v>
       </c>
       <c r="P12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -3079,13 +3056,13 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O13">
         <v>4</v>
       </c>
       <c r="P13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3118,7 +3095,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -3244,7 +3221,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -3370,7 +3347,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -3496,7 +3473,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -3616,7 +3593,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -3739,7 +3716,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -3856,7 +3833,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
